--- a/Cheat_sheet_bootcamp.xlsx
+++ b/Cheat_sheet_bootcamp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\zurich_walks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrik/Dropbox/__HSLU/Priv_R-Bootcamp/repo/zurich_walks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D30CAFE-E0D5-4D18-A6C4-038780BFDB40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A793DCC-4375-674A-9147-A2B0B95B510B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="4110" windowWidth="18300" windowHeight="15405" xr2:uid="{14A17F68-C01D-4E05-8481-97A90BE55806}"/>
+    <workbookView xWindow="16660" yWindow="720" windowWidth="18300" windowHeight="15400" xr2:uid="{14A17F68-C01D-4E05-8481-97A90BE55806}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="181">
   <si>
     <t>R Cheatsheet</t>
   </si>
@@ -879,9 +879,6 @@
     <t>group df1 by x</t>
   </si>
   <si>
-    <t>av</t>
-  </si>
-  <si>
     <t>av::av_encode_video(input, output = "output.avi", framerate = 24)</t>
   </si>
   <si>
@@ -904,6 +901,54 @@
   </si>
   <si>
     <t>Patrik Widmer &amp; Patrice Robin</t>
+  </si>
+  <si>
+    <t>Vectors</t>
+  </si>
+  <si>
+    <t>c(10,20,30)</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>c(10,20,30) + c(1,2,3)</t>
+  </si>
+  <si>
+    <t>Sum up two vectors</t>
+  </si>
+  <si>
+    <t>c(10,20,30) + 1:6</t>
+  </si>
+  <si>
+    <t>Reuse the first element in the vecto</t>
+  </si>
+  <si>
+    <t>Scatterplot Matrices</t>
+  </si>
+  <si>
+    <t>pairs(df)</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>pdf(file = "./Testing_ThePdfFunction.pdf")</t>
+  </si>
+  <si>
+    <t>dev.off()</t>
+  </si>
+  <si>
+    <t>Everything after pdf() will be written to the pdf unitl dev.off()</t>
+  </si>
+  <si>
+    <t>avi</t>
+  </si>
+  <si>
+    <t>mp4</t>
+  </si>
+  <si>
+    <t>av::av_encode_video(input, output = "output.mp4", framerate = 3)</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1131,6 +1176,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1455,29 +1503,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFAA708-C5DE-4474-A0C3-B1119C56AC72}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" customWidth="1"/>
+    <col min="1" max="1" width="57.5" customWidth="1"/>
     <col min="2" max="2" width="57" style="22" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
@@ -1488,19 +1536,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +1556,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1516,7 +1564,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1532,14 +1580,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="17"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1547,7 +1595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1555,7 +1603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1563,7 +1611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -1574,7 +1622,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -1582,7 +1630,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>148</v>
       </c>
@@ -1590,14 +1638,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1605,7 +1653,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -1613,7 +1661,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>83</v>
       </c>
@@ -1621,7 +1669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1629,7 +1677,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -1637,602 +1685,688 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="31"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="31"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="31"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31"/>
+      <c r="C31" s="31"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="31"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B36" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B37" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B38" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B40" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="14"/>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B43" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B44" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B45" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B46" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B47" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B48" s="22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B50" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B51" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B53" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B54" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B56" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="10"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="10"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="10"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="10"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B60" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="C60" s="10"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="10"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="10"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="10"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B62" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="10"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="C62" s="10"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="14"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="B63" s="25"/>
       <c r="C63" s="14"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="25"/>
+      <c r="C69" s="14"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B70" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C70" s="35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B71" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="31"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="C71" s="35"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B72" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="31"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="31"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="C72" s="35"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="35"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B74" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B75" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="C70" s="10"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="C76" s="10"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="20"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="B77" s="27"/>
+      <c r="C77" s="20"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B78" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B79" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B80" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B81" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B82" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B84" s="22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B80" s="28"/>
-      <c r="C80" s="8"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="B86" s="28"/>
+      <c r="C86" s="8"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="31"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C88" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B89" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="31"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="C89" s="35"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B90" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C83" s="31"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="C90" s="35"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B91" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="31"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="C91" s="35"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B92" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C85" s="31"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="C92" s="35"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B93" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="31"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="C93" s="35"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B94" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C87" s="31"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="C94" s="35"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B95" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C88" s="31"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="C95" s="35"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B96" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C89" s="31"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="C96" s="35"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B97" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C90" s="31"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="21" t="s">
+      <c r="C97" s="35"/>
+    </row>
+    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B98" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="31"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
+      <c r="C98" s="35"/>
+    </row>
+    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B99" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="31"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="C93" s="31"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="C99" s="35"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="3"/>
+      <c r="C100" s="35"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B101" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C94" s="31"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="C95" s="31"/>
-    </row>
-    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="21" t="s">
+      <c r="C101" s="35"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="3"/>
+      <c r="C102" s="35"/>
+    </row>
+    <row r="103" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A103" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B103" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C96" s="31"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="C97" s="31"/>
-    </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="30" t="s">
+      <c r="C103" s="35"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="21"/>
+      <c r="C104" s="35"/>
+    </row>
+    <row r="105" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A105" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B105" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C98" s="31"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
-      <c r="C99" s="10"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+      <c r="C105" s="35"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="30"/>
+      <c r="C106" s="10"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B100" s="28"/>
-      <c r="C100" s="8"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="B107" s="28"/>
+      <c r="C107" s="8"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B108" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C108" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>133</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B109" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C109" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="10"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="32" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="10"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C112" s="31"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" s="33"/>
+      <c r="C113" s="34"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C114" s="31"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>176</v>
+      </c>
+      <c r="C115" s="31"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C116" s="31"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B104" s="33"/>
-      <c r="C104" s="34"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="B117" s="33"/>
+      <c r="C117" s="34"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B105" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="10"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="10"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
+      <c r="C118" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C120" s="10"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B108" s="29"/>
-      <c r="C108" s="12"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B121" s="29"/>
+      <c r="C121" s="12"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>90</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B122" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>92</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B123" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>120</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="B125" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C125" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+    <row r="127" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="B127" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C127" s="9" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C81:C98"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C88:C105"/>
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
